--- a/06-03-2023/data/output/xlsx/Causality for Category/6.xlsx
+++ b/06-03-2023/data/output/xlsx/Causality for Category/6.xlsx
@@ -49,162 +49,159 @@
     <t>Causality</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__8</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__9</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__10</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__11</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__12</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__13</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__14</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__15</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__16</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__17</t>
+  </si>
+  <si>
     <t>n/a</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__17</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__18</t>
   </si>
   <si>
-    <t>num_of_decimals__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__19</t>
   </si>
   <si>
     <t>num_of_decimals__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
   </si>
   <si>
     <t>num_of_decimals__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
   </si>
   <si>
     <t>num_of_decimals__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
   </si>
   <si>
     <t>num_of_decimals__4</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
+  </si>
+  <si>
     <t>num_of_decimals__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__6,num_of_decimals__7,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
-  </si>
-  <si>
     <t>num_of_decimals__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__7,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
   </si>
   <si>
     <t>num_of_decimals__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
   </si>
   <si>
     <t>num_of_decimals__8</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
+  </si>
+  <si>
     <t>num_of_decimals__9</t>
   </si>
   <si>
@@ -268,93 +265,93 @@
     <t>num_of_decimals__29</t>
   </si>
   <si>
-    <t>num_of_equals__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_decimals__30</t>
   </si>
   <si>
     <t>num_of_equals__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__0,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
   </si>
   <si>
     <t>num_of_equals__2</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
+  </si>
+  <si>
     <t>num_of_equals__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__0,num_of_equals__1,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
-  </si>
-  <si>
     <t>num_of_equals__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
   </si>
   <si>
     <t>num_of_equals__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
   </si>
   <si>
     <t>num_of_equals__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
   </si>
   <si>
     <t>num_of_equals__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
   </si>
   <si>
     <t>num_of_equals__8</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
   </si>
   <si>
     <t>num_of_equals__9</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
   </si>
   <si>
     <t>num_of_equals__10</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
   </si>
   <si>
     <t>num_of_equals__11</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
   </si>
   <si>
     <t>num_of_equals__12</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
+  </si>
+  <si>
     <t>num_of_equals__13</t>
   </si>
   <si>
-    <t>num_of_mults_and_divs__0</t>
+    <t>num_of_equals__14</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
-  </si>
-  <si>
     <t>num_of_mults_and_divs__2</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__3</t>
   </si>
   <si>
@@ -388,18 +385,18 @@
     <t>num_of_mults_and_divs__13</t>
   </si>
   <si>
-    <t>num_of_unknowns__0</t>
+    <t>num_of_mults_and_divs__14</t>
   </si>
   <si>
     <t>num_of_unknowns__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
-  </si>
-  <si>
     <t>num_of_unknowns__2</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
+  </si>
+  <si>
     <t>num_of_unknowns__3</t>
   </si>
   <si>
@@ -430,33 +427,33 @@
     <t>num_of_unknowns__12</t>
   </si>
   <si>
-    <t>pairs_of_parentheses__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_unknowns__13</t>
   </si>
   <si>
     <t>pairs_of_parentheses__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
   </si>
   <si>
     <t>pairs_of_parentheses__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
   </si>
   <si>
     <t>pairs_of_parentheses__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__4</t>
   </si>
   <si>
     <t>pairs_of_parentheses__4</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+  </si>
+  <si>
     <t>pairs_of_parentheses__5</t>
   </si>
   <si>
@@ -485,6 +482,9 @@
   </si>
   <si>
     <t>pairs_of_parentheses__14</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>Number of Additions And Subtractions Chart</t>

--- a/06-03-2023/data/output/xlsx/Causality for Category/6.xlsx
+++ b/06-03-2023/data/output/xlsx/Causality for Category/6.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="145">
   <si>
     <t>Causality Values Chart</t>
   </si>
@@ -52,105 +52,69 @@
     <t>num_of_adds_and_subs__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,pairs_of_parentheses__1</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,pairs_of_parentheses__1</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__4,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,pairs_of_parentheses__1</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,pairs_of_parentheses__1</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
+    <t>n/a</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__8</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__9</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__10</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__11</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__12</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__13</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__14</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__15</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__16</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__17</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__18</t>
   </si>
   <si>
@@ -160,46 +124,49 @@
     <t>num_of_decimals__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,pairs_of_parentheses__1</t>
   </si>
   <si>
     <t>num_of_decimals__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,pairs_of_parentheses__1</t>
   </si>
   <si>
     <t>num_of_decimals__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,pairs_of_parentheses__1</t>
   </si>
   <si>
     <t>num_of_decimals__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,pairs_of_parentheses__1</t>
   </si>
   <si>
     <t>num_of_decimals__5</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,pairs_of_parentheses__1</t>
+  </si>
+  <si>
     <t>num_of_decimals__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,pairs_of_parentheses__1</t>
   </si>
   <si>
     <t>num_of_decimals__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,pairs_of_parentheses__1</t>
   </si>
   <si>
     <t>num_of_decimals__8</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,pairs_of_parentheses__1</t>
   </si>
   <si>
     <t>num_of_decimals__9</t>
@@ -271,72 +238,51 @@
     <t>num_of_equals__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__2,num_of_equals__3,num_of_equals__4,pairs_of_parentheses__1</t>
   </si>
   <si>
     <t>num_of_equals__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__3,num_of_equals__4,pairs_of_parentheses__1</t>
   </si>
   <si>
     <t>num_of_equals__3</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,pairs_of_parentheses__1</t>
+  </si>
+  <si>
     <t>num_of_equals__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__3,pairs_of_parentheses__1</t>
   </si>
   <si>
     <t>num_of_equals__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
-  </si>
-  <si>
     <t>num_of_equals__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
-  </si>
-  <si>
     <t>num_of_equals__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
-  </si>
-  <si>
     <t>num_of_equals__8</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
-  </si>
-  <si>
     <t>num_of_equals__9</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
-  </si>
-  <si>
     <t>num_of_equals__10</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
-  </si>
-  <si>
     <t>num_of_equals__11</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
-  </si>
-  <si>
     <t>num_of_equals__12</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
-  </si>
-  <si>
     <t>num_of_equals__13</t>
   </si>
   <si>
@@ -349,9 +295,6 @@
     <t>num_of_mults_and_divs__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
-  </si>
-  <si>
     <t>num_of_mults_and_divs__3</t>
   </si>
   <si>
@@ -394,9 +337,6 @@
     <t>num_of_unknowns__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
-  </si>
-  <si>
     <t>num_of_unknowns__3</t>
   </si>
   <si>
@@ -433,25 +373,16 @@
     <t>pairs_of_parentheses__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4</t>
   </si>
   <si>
     <t>pairs_of_parentheses__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
-  </si>
-  <si>
     <t>pairs_of_parentheses__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__4</t>
-  </si>
-  <si>
     <t>pairs_of_parentheses__4</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_adds_and_subs__16,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_equals__11,num_of_equals__12,num_of_mults_and_divs__2,num_of_unknowns__2,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
   </si>
   <si>
     <t>pairs_of_parentheses__5</t>
@@ -640,10 +571,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>AddsSubs!$C$4:$C$21</c:f>
+              <c:f>AddsSubs!$C$4:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -656,98 +587,26 @@
                 <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AddsSubs!$D$4:$D$21</c:f>
+              <c:f>AddsSubs!$D$4:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.006128702757916241</c:v>
+                  <c:v>0.001021450459652707</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.007263922518159807</c:v>
+                  <c:v>0.001210653753026634</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.009708737864077669</c:v>
+                  <c:v>0.003236245954692557</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.01515151515151515</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.01904761904761905</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.02531645569620253</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.01923076923076923</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.025</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.04545454545454546</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.05555555555555555</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.1111111111111111</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.1428571428571428</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.1666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.25</c:v>
+                  <c:v>0.005050505050505051</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -804,7 +663,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 6</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -868,31 +727,19 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>MultsDivs!$C$4:$C$7</c:f>
+              <c:f>MultsDivs!$C$4:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
+                <c:ptCount val="2"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MultsDivs!$D$4:$D$7</c:f>
+              <c:f>MultsDivs!$D$4:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.0053475935828877</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.007042253521126761</c:v>
-                </c:pt>
+                <c:ptCount val="2"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -948,7 +795,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 6</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1012,10 +859,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Equations!$C$4:$C$17</c:f>
+              <c:f>Equations!$C$4:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1028,74 +875,26 @@
                 <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Equations!$D$4:$D$17</c:f>
+              <c:f>Equations!$D$4:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.006018054162487462</c:v>
+                  <c:v>0.001003009027081244</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.006054490413723511</c:v>
+                  <c:v>0.001009081735620585</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.005565862708719851</c:v>
+                  <c:v>0.001855287569573284</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.008720930232558139</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.009803921568627451</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.007352941176470588</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0108695652173913</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.01851851851851852</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.02857142857142857</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.05882352941176471</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.1111111111111111</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.2</c:v>
+                  <c:v>0.002906976744186046</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1152,7 +951,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 6</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1254,16 +1053,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.009646302250803859</c:v>
+                  <c:v>0.001607717041800643</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01219512195121951</c:v>
+                  <c:v>0.002032520325203252</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.01095890410958904</c:v>
+                  <c:v>0.00273972602739726</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0158102766798419</c:v>
+                  <c:v>0.003952569169960474</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.005988023952095809</c:v>
@@ -1332,7 +1131,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 6</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1396,30 +1195,24 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Unknowns!$C$4:$C$7</c:f>
+              <c:f>Unknowns!$C$4:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Unknowns!$D$4:$D$7</c:f>
+              <c:f>Unknowns!$D$4:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.006012024048096192</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.007320644216691069</c:v>
+                  <c:v>0.001002004008016032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1476,7 +1269,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 6</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1540,42 +1333,24 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>PairsOfParentheses!$C$4:$C$9</c:f>
+              <c:f>PairsOfParentheses!$C$4:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PairsOfParentheses!$D$4:$D$9</c:f>
+              <c:f>PairsOfParentheses!$D$4:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.007537688442211055</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.006369426751592357</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.01333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.02325581395348837</c:v>
+                  <c:v>0.002512562814070352</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1632,7 +1407,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 6</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2198,16 +1973,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>0.006128702757916241</v>
+        <v>0.001021450459652707</v>
       </c>
       <c r="E3" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="1">
-        <v>0.04448073986516313</v>
+        <v>0.004434760706340381</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2221,16 +1996,16 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>0.007263922518159807</v>
+        <v>0.001210653753026634</v>
       </c>
       <c r="E4" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="1">
-        <v>0.04509694075296404</v>
+        <v>0.004833589238893226</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2244,16 +2019,16 @@
         <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>0.009708737864077669</v>
+        <v>0.003236245954692557</v>
       </c>
       <c r="E5" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="1">
-        <v>0.0450694136302913</v>
+        <v>0.006974315609099762</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2267,16 +2042,16 @@
         <v>4</v>
       </c>
       <c r="D6" s="1">
-        <v>0.01515151515151515</v>
+        <v>0.005050505050505051</v>
       </c>
       <c r="E6" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="1">
-        <v>0.04784715741964946</v>
+        <v>0.009158218568801689</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2290,16 +2065,14 @@
         <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>0.01904761904761905</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>0.006012024048096192</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.04643815383131917</v>
+        <v>0.001002004008016032</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2313,21 +2086,19 @@
         <v>6</v>
       </c>
       <c r="D8" s="1">
-        <v>0.02531645569620253</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>0.006012024048096192</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.04976998703726202</v>
+        <v>0.001002004008016032</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1">
         <v>52</v>
@@ -2336,21 +2107,19 @@
         <v>7</v>
       </c>
       <c r="D9" s="1">
-        <v>0.01923076923076923</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>0.006012024048096192</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.04133348663460244</v>
+        <v>0.001002004008016032</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1">
         <v>40</v>
@@ -2359,21 +2128,19 @@
         <v>8</v>
       </c>
       <c r="D10" s="1">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>0.006012024048096192</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0.04591721370112831</v>
+        <v>0.001002004008016032</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1">
         <v>22</v>
@@ -2382,21 +2149,19 @@
         <v>9</v>
       </c>
       <c r="D11" s="1">
-        <v>0.04545454545454546</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>0.006012024048096192</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0.064151471424958</v>
+        <v>0.001002004008016032</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1">
         <v>18</v>
@@ -2405,21 +2170,19 @@
         <v>10</v>
       </c>
       <c r="D12" s="1">
-        <v>0.05555555555555555</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>0.006012024048096192</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0.07019557676884498</v>
+        <v>0.001002004008016032</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1">
         <v>10</v>
@@ -2428,21 +2191,19 @@
         <v>11</v>
       </c>
       <c r="D13" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>0.006012024048096192</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0.1000816222089529</v>
+        <v>0.001002004008016032</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1">
         <v>9</v>
@@ -2451,21 +2212,19 @@
         <v>12</v>
       </c>
       <c r="D14" s="1">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>0.006012024048096192</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0.1143075135828149</v>
+        <v>0.001002004008016032</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1">
         <v>8</v>
@@ -2474,21 +2233,19 @@
         <v>13</v>
       </c>
       <c r="D15" s="1">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>0.006012024048096192</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0.1268926372190625</v>
+        <v>0.001002004008016032</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B16" s="1">
         <v>7</v>
@@ -2497,21 +2254,19 @@
         <v>14</v>
       </c>
       <c r="D16" s="1">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>0.006012024048096192</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0.1394434645636923</v>
+        <v>0.001002004008016032</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1">
         <v>6</v>
@@ -2520,21 +2275,19 @@
         <v>15</v>
       </c>
       <c r="D17" s="1">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>0.006012024048096192</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0.1736706413338987</v>
+        <v>0.001002004008016032</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1">
         <v>4</v>
@@ -2543,21 +2296,19 @@
         <v>16</v>
       </c>
       <c r="D18" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>0.006012024048096192</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0.2232931646514241</v>
+        <v>0.001002004008016032</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B19" s="1">
         <v>2</v>
@@ -2569,16 +2320,16 @@
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B20" s="1">
         <v>2</v>
@@ -2590,16 +2341,16 @@
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
@@ -2611,16 +2362,16 @@
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B22" s="1">
         <v>622</v>
@@ -2629,21 +2380,21 @@
         <v>20</v>
       </c>
       <c r="D22" s="1">
-        <v>0.009646302250803859</v>
+        <v>0.001607717041800643</v>
       </c>
       <c r="E22" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G22" s="1">
-        <v>0.05056239842762786</v>
+        <v>0.004929381202558766</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B23" s="1">
         <v>492</v>
@@ -2652,21 +2403,21 @@
         <v>21</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01219512195121951</v>
+        <v>0.002032520325203252</v>
       </c>
       <c r="E23" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G23" s="1">
-        <v>0.0690441384351819</v>
+        <v>0.005316610283500019</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B24" s="1">
         <v>365</v>
@@ -2675,21 +2426,21 @@
         <v>22</v>
       </c>
       <c r="D24" s="1">
-        <v>0.01095890410958904</v>
+        <v>0.00273972602739726</v>
       </c>
       <c r="E24" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G24" s="1">
-        <v>0.08454976166265316</v>
+        <v>0.005981275481944428</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B25" s="1">
         <v>253</v>
@@ -2698,21 +2449,21 @@
         <v>23</v>
       </c>
       <c r="D25" s="1">
-        <v>0.0158102766798419</v>
+        <v>0.003952569169960474</v>
       </c>
       <c r="E25" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G25" s="1">
-        <v>0.08760206877432787</v>
+        <v>0.006807265007889951</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B26" s="1">
         <v>167</v>
@@ -2724,16 +2475,18 @@
         <v>0.005988023952095809</v>
       </c>
       <c r="E26" s="1">
-        <v>0.006012024048096192</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1" t="s">
+        <v>0.001002004008016032</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>42</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.008031760295050244</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B27" s="1">
         <v>126</v>
@@ -2745,18 +2498,18 @@
         <v>0.007936507936507936</v>
       </c>
       <c r="E27" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G27" s="1">
-        <v>-0.06515850484993449</v>
+        <v>0.009523120173334025</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B28" s="1">
         <v>85</v>
@@ -2768,18 +2521,18 @@
         <v>0.01176470588235294</v>
       </c>
       <c r="E28" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G28" s="1">
-        <v>-0.05290361080314529</v>
+        <v>0.01273187095585886</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B29" s="1">
         <v>65</v>
@@ -2791,18 +2544,18 @@
         <v>0.01538461538461539</v>
       </c>
       <c r="E29" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="G29" s="1">
-        <v>-0.05000723261437564</v>
+        <v>0.01606388489002366</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B30" s="1">
         <v>41</v>
@@ -2814,16 +2567,16 @@
         <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B31" s="1">
         <v>31</v>
@@ -2835,16 +2588,16 @@
         <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B32" s="1">
         <v>23</v>
@@ -2856,16 +2609,16 @@
         <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B33" s="1">
         <v>15</v>
@@ -2877,16 +2630,16 @@
         <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B34" s="1">
         <v>10</v>
@@ -2898,16 +2651,16 @@
         <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B35" s="1">
         <v>7</v>
@@ -2919,16 +2672,16 @@
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B36" s="1">
         <v>6</v>
@@ -2940,16 +2693,16 @@
         <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B37" s="1">
         <v>6</v>
@@ -2961,16 +2714,16 @@
         <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B38" s="1">
         <v>5</v>
@@ -2982,16 +2735,16 @@
         <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B39" s="1">
         <v>4</v>
@@ -3003,16 +2756,16 @@
         <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B40" s="1">
         <v>4</v>
@@ -3024,16 +2777,16 @@
         <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B41" s="1">
         <v>3</v>
@@ -3045,16 +2798,16 @@
         <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B42" s="1">
         <v>2</v>
@@ -3066,16 +2819,16 @@
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B43" s="1">
         <v>2</v>
@@ -3087,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B44" s="1">
         <v>2</v>
@@ -3108,16 +2861,16 @@
         <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B45" s="1">
         <v>2</v>
@@ -3129,16 +2882,16 @@
         <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B46" s="1">
         <v>1</v>
@@ -3150,16 +2903,16 @@
         <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B47" s="1">
         <v>1</v>
@@ -3171,16 +2924,16 @@
         <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B48" s="1">
         <v>1</v>
@@ -3192,16 +2945,16 @@
         <v>0</v>
       </c>
       <c r="E48" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B49" s="1">
         <v>1</v>
@@ -3213,16 +2966,16 @@
         <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B50" s="1">
         <v>1</v>
@@ -3234,16 +2987,16 @@
         <v>0</v>
       </c>
       <c r="E50" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B51" s="1">
         <v>1</v>
@@ -3255,16 +3008,16 @@
         <v>0</v>
       </c>
       <c r="E51" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B52" s="1">
         <v>997</v>
@@ -3273,21 +3026,21 @@
         <v>50</v>
       </c>
       <c r="D52" s="1">
-        <v>0.006018054162487462</v>
+        <v>0.001003009027081244</v>
       </c>
       <c r="E52" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="G52" s="1">
-        <v>0.0444108972328739</v>
+        <v>0.004390008388513207</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B53" s="1">
         <v>991</v>
@@ -3296,21 +3049,21 @@
         <v>51</v>
       </c>
       <c r="D53" s="1">
-        <v>0.006054490413723511</v>
+        <v>0.001009081735620585</v>
       </c>
       <c r="E53" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="G53" s="1">
-        <v>0.04442526130926805</v>
+        <v>0.004395076146474639</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B54" s="1">
         <v>539</v>
@@ -3319,19 +3072,21 @@
         <v>52</v>
       </c>
       <c r="D54" s="1">
-        <v>0.005565862708719851</v>
+        <v>0.001855287569573284</v>
       </c>
       <c r="E54" s="1">
-        <v>0.006012024048096192</v>
-      </c>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1" t="s">
-        <v>42</v>
+        <v>0.001002004008016032</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0.004926775398319163</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B55" s="1">
         <v>344</v>
@@ -3340,21 +3095,21 @@
         <v>53</v>
       </c>
       <c r="D55" s="1">
-        <v>0.008720930232558139</v>
+        <v>0.002906976744186046</v>
       </c>
       <c r="E55" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G55" s="1">
-        <v>0.04343891012032865</v>
+        <v>0.00597649852659324</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B56" s="1">
         <v>204</v>
@@ -3363,21 +3118,19 @@
         <v>54</v>
       </c>
       <c r="D56" s="1">
-        <v>0.009803921568627451</v>
+        <v>0</v>
       </c>
       <c r="E56" s="1">
-        <v>0.006012024048096192</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G56" s="1">
-        <v>0.0394459040230183</v>
+        <v>0.001002004008016032</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B57" s="1">
         <v>136</v>
@@ -3386,21 +3139,19 @@
         <v>55</v>
       </c>
       <c r="D57" s="1">
-        <v>0.007352941176470588</v>
+        <v>0</v>
       </c>
       <c r="E57" s="1">
-        <v>0.006012024048096192</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G57" s="1">
-        <v>0.03169347894263024</v>
+        <v>0.001002004008016032</v>
+      </c>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B58" s="1">
         <v>92</v>
@@ -3409,21 +3160,19 @@
         <v>56</v>
       </c>
       <c r="D58" s="1">
-        <v>0.0108695652173913</v>
+        <v>0</v>
       </c>
       <c r="E58" s="1">
-        <v>0.006012024048096192</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G58" s="1">
-        <v>0.03571360152949936</v>
+        <v>0.001002004008016032</v>
+      </c>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B59" s="1">
         <v>54</v>
@@ -3432,21 +3181,19 @@
         <v>57</v>
       </c>
       <c r="D59" s="1">
-        <v>0.01851851851851852</v>
+        <v>0</v>
       </c>
       <c r="E59" s="1">
-        <v>0.006012024048096192</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G59" s="1">
-        <v>0.04420703725560704</v>
+        <v>0.001002004008016032</v>
+      </c>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B60" s="1">
         <v>35</v>
@@ -3455,21 +3202,19 @@
         <v>58</v>
       </c>
       <c r="D60" s="1">
-        <v>0.02857142857142857</v>
+        <v>0</v>
       </c>
       <c r="E60" s="1">
-        <v>0.006012024048096192</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G60" s="1">
-        <v>0.05463531309667811</v>
+        <v>0.001002004008016032</v>
+      </c>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="B61" s="1">
         <v>17</v>
@@ -3478,21 +3223,19 @@
         <v>59</v>
       </c>
       <c r="D61" s="1">
-        <v>0.05882352941176471</v>
+        <v>0</v>
       </c>
       <c r="E61" s="1">
-        <v>0.006012024048096192</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G61" s="1">
-        <v>0.07630231761827555</v>
+        <v>0.001002004008016032</v>
+      </c>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B62" s="1">
         <v>9</v>
@@ -3501,21 +3244,19 @@
         <v>60</v>
       </c>
       <c r="D62" s="1">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="E62" s="1">
-        <v>0.006012024048096192</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G62" s="1">
-        <v>0.1181107195341287</v>
+        <v>0.001002004008016032</v>
+      </c>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B63" s="1">
         <v>5</v>
@@ -3524,21 +3265,19 @@
         <v>61</v>
       </c>
       <c r="D63" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E63" s="1">
-        <v>0.006012024048096192</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G63" s="1">
-        <v>0.1860356137400403</v>
+        <v>0.001002004008016032</v>
+      </c>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B64" s="1">
         <v>1</v>
@@ -3550,16 +3289,16 @@
         <v>0</v>
       </c>
       <c r="E64" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="B65" s="1">
         <v>1</v>
@@ -3571,16 +3310,16 @@
         <v>0</v>
       </c>
       <c r="E65" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="B66" s="1">
         <v>187</v>
@@ -3589,19 +3328,19 @@
         <v>64</v>
       </c>
       <c r="D66" s="1">
-        <v>0.0053475935828877</v>
+        <v>0</v>
       </c>
       <c r="E66" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="B67" s="1">
         <v>142</v>
@@ -3610,21 +3349,19 @@
         <v>65</v>
       </c>
       <c r="D67" s="1">
-        <v>0.007042253521126761</v>
+        <v>0</v>
       </c>
       <c r="E67" s="1">
-        <v>0.006012024048096192</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G67" s="1">
-        <v>-0.05675008059899648</v>
+        <v>0.001002004008016032</v>
+      </c>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="B68" s="1">
         <v>93</v>
@@ -3636,16 +3373,16 @@
         <v>0</v>
       </c>
       <c r="E68" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="B69" s="1">
         <v>73</v>
@@ -3657,16 +3394,16 @@
         <v>0</v>
       </c>
       <c r="E69" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="B70" s="1">
         <v>54</v>
@@ -3678,16 +3415,16 @@
         <v>0</v>
       </c>
       <c r="E70" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="B71" s="1">
         <v>37</v>
@@ -3699,16 +3436,16 @@
         <v>0</v>
       </c>
       <c r="E71" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F71" s="1"/>
       <c r="G71" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="B72" s="1">
         <v>22</v>
@@ -3720,16 +3457,16 @@
         <v>0</v>
       </c>
       <c r="E72" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F72" s="1"/>
       <c r="G72" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="B73" s="1">
         <v>17</v>
@@ -3741,16 +3478,16 @@
         <v>0</v>
       </c>
       <c r="E73" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F73" s="1"/>
       <c r="G73" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="B74" s="1">
         <v>11</v>
@@ -3762,16 +3499,16 @@
         <v>0</v>
       </c>
       <c r="E74" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F74" s="1"/>
       <c r="G74" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="B75" s="1">
         <v>8</v>
@@ -3783,16 +3520,16 @@
         <v>0</v>
       </c>
       <c r="E75" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F75" s="1"/>
       <c r="G75" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="B76" s="1">
         <v>5</v>
@@ -3804,16 +3541,16 @@
         <v>0</v>
       </c>
       <c r="E76" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="B77" s="1">
         <v>3</v>
@@ -3825,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="E77" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="B78" s="1">
         <v>2</v>
@@ -3846,16 +3583,16 @@
         <v>0</v>
       </c>
       <c r="E78" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="B79" s="1">
         <v>1</v>
@@ -3867,16 +3604,16 @@
         <v>0</v>
       </c>
       <c r="E79" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="B80" s="1">
         <v>998</v>
@@ -3885,19 +3622,19 @@
         <v>78</v>
       </c>
       <c r="D80" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="E80" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="B81" s="1">
         <v>683</v>
@@ -3906,21 +3643,19 @@
         <v>79</v>
       </c>
       <c r="D81" s="1">
-        <v>0.007320644216691069</v>
+        <v>0</v>
       </c>
       <c r="E81" s="1">
-        <v>0.006012024048096192</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G81" s="1">
-        <v>0.04148894398444249</v>
+        <v>0.001002004008016032</v>
+      </c>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="B82" s="1">
         <v>95</v>
@@ -3932,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E82" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="B83" s="1">
         <v>52</v>
@@ -3953,16 +3688,16 @@
         <v>0</v>
       </c>
       <c r="E83" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="B84" s="1">
         <v>23</v>
@@ -3974,16 +3709,16 @@
         <v>0</v>
       </c>
       <c r="E84" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F84" s="1"/>
       <c r="G84" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="B85" s="1">
         <v>14</v>
@@ -3995,16 +3730,16 @@
         <v>0</v>
       </c>
       <c r="E85" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="B86" s="1">
         <v>11</v>
@@ -4016,16 +3751,16 @@
         <v>0</v>
       </c>
       <c r="E86" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F86" s="1"/>
       <c r="G86" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="B87" s="1">
         <v>7</v>
@@ -4037,16 +3772,16 @@
         <v>0</v>
       </c>
       <c r="E87" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F87" s="1"/>
       <c r="G87" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="B88" s="1">
         <v>5</v>
@@ -4058,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="E88" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F88" s="1"/>
       <c r="G88" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="B89" s="1">
         <v>3</v>
@@ -4079,16 +3814,16 @@
         <v>0</v>
       </c>
       <c r="E89" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="B90" s="1">
         <v>2</v>
@@ -4100,16 +3835,16 @@
         <v>0</v>
       </c>
       <c r="E90" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="B91" s="1">
         <v>1</v>
@@ -4121,16 +3856,16 @@
         <v>0</v>
       </c>
       <c r="E91" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="B92" s="1">
         <v>1</v>
@@ -4142,16 +3877,16 @@
         <v>0</v>
       </c>
       <c r="E92" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="B93" s="1">
         <v>398</v>
@@ -4160,21 +3895,21 @@
         <v>91</v>
       </c>
       <c r="D93" s="1">
-        <v>0.007537688442211055</v>
+        <v>0.002512562814070352</v>
       </c>
       <c r="E93" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="G93" s="1">
-        <v>0.04314314626017209</v>
+        <v>0.005857152231939569</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="B94" s="1">
         <v>157</v>
@@ -4183,21 +3918,19 @@
         <v>92</v>
       </c>
       <c r="D94" s="1">
-        <v>0.006369426751592357</v>
+        <v>0</v>
       </c>
       <c r="E94" s="1">
-        <v>0.006012024048096192</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G94" s="1">
-        <v>-0.2440986704014136</v>
+        <v>0.001002004008016032</v>
+      </c>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="B95" s="1">
         <v>75</v>
@@ -4206,21 +3939,19 @@
         <v>93</v>
       </c>
       <c r="D95" s="1">
-        <v>0.01333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E95" s="1">
-        <v>0.006012024048096192</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G95" s="1">
-        <v>-0.09732771869843623</v>
+        <v>0.001002004008016032</v>
+      </c>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="B96" s="1">
         <v>43</v>
@@ -4229,21 +3960,19 @@
         <v>94</v>
       </c>
       <c r="D96" s="1">
-        <v>0.02325581395348837</v>
+        <v>0</v>
       </c>
       <c r="E96" s="1">
-        <v>0.006012024048096192</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G96" s="1">
-        <v>-0.06056678891836089</v>
+        <v>0.001002004008016032</v>
+      </c>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="B97" s="1">
         <v>25</v>
@@ -4255,16 +3984,16 @@
         <v>0</v>
       </c>
       <c r="E97" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F97" s="1"/>
       <c r="G97" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="B98" s="1">
         <v>17</v>
@@ -4276,16 +4005,16 @@
         <v>0</v>
       </c>
       <c r="E98" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F98" s="1"/>
       <c r="G98" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="B99" s="1">
         <v>8</v>
@@ -4297,16 +4026,16 @@
         <v>0</v>
       </c>
       <c r="E99" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F99" s="1"/>
       <c r="G99" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="B100" s="1">
         <v>4</v>
@@ -4318,16 +4047,16 @@
         <v>0</v>
       </c>
       <c r="E100" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F100" s="1"/>
       <c r="G100" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="B101" s="1">
         <v>3</v>
@@ -4339,16 +4068,16 @@
         <v>0</v>
       </c>
       <c r="E101" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F101" s="1"/>
       <c r="G101" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="B102" s="1">
         <v>3</v>
@@ -4360,16 +4089,16 @@
         <v>0</v>
       </c>
       <c r="E102" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="B103" s="1">
         <v>3</v>
@@ -4381,16 +4110,16 @@
         <v>0</v>
       </c>
       <c r="E103" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F103" s="1"/>
       <c r="G103" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="B104" s="1">
         <v>3</v>
@@ -4402,16 +4131,16 @@
         <v>0</v>
       </c>
       <c r="E104" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="1" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="B105" s="1">
         <v>2</v>
@@ -4423,16 +4152,16 @@
         <v>0</v>
       </c>
       <c r="E105" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="1" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="B106" s="1">
         <v>1</v>
@@ -4444,16 +4173,16 @@
         <v>0</v>
       </c>
       <c r="E106" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="1" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="B107" s="1">
         <v>1</v>
@@ -4465,11 +4194,11 @@
         <v>0</v>
       </c>
       <c r="E107" s="1">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F107" s="1"/>
       <c r="G107" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -4479,7 +4208,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4490,7 +4219,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4513,25 +4242,25 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -4545,13 +4274,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.006128702757916241</v>
+        <v>0.001021450459652707</v>
       </c>
       <c r="E4" s="3">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F4" s="1">
-        <v>0.0001166787098200485</v>
+        <v>1.944645163667489E-05</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -4588,13 +4317,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.007263922518159807</v>
+        <v>0.001210653753026634</v>
       </c>
       <c r="E5" s="3">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F5" s="1">
-        <v>0.001251898470063614</v>
+        <v>0.0002086497450106025</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -4631,13 +4360,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.009708737864077669</v>
+        <v>0.003236245954692557</v>
       </c>
       <c r="E6" s="3">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F6" s="1">
-        <v>0.003696713815981477</v>
+        <v>0.002234241946676525</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -4674,13 +4403,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.01515151515151515</v>
+        <v>0.005050505050505051</v>
       </c>
       <c r="E7" s="3">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F7" s="1">
-        <v>0.00913949110341896</v>
+        <v>0.004048501042489019</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -4703,522 +4432,6 @@
       </c>
       <c r="L7" s="1">
         <f>MIN(K7,1-D7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="3">
-        <v>105</v>
-      </c>
-      <c r="C8" s="1">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.01904761904761905</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.006012024048096192</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.01303559499952286</v>
-      </c>
-      <c r="G8" s="1">
-        <f>1/(POWER(B8,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <f>G8*H8</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K8" s="1">
-        <f>I8*J8</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <f>MIN(K8,1-D8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="3">
-        <v>79</v>
-      </c>
-      <c r="C9" s="1">
-        <v>6</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.02531645569620253</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.006012024048096192</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.01930443164810634</v>
-      </c>
-      <c r="G9" s="1">
-        <f>1/(POWER(B9,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <f>G9*H9</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K9" s="1">
-        <f>I9*J9</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="1">
-        <f>MIN(K9,1-D9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="3">
-        <v>52</v>
-      </c>
-      <c r="C10" s="1">
-        <v>7</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.01923076923076923</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.006012024048096192</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.01321874518267304</v>
-      </c>
-      <c r="G10" s="1">
-        <f>1/(POWER(B10,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <f>G10*H10</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K10" s="1">
-        <f>I10*J10</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="1">
-        <f>MIN(K10,1-D10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="3">
-        <v>40</v>
-      </c>
-      <c r="C11" s="1">
-        <v>8</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.025</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.006012024048096192</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.01898797595190381</v>
-      </c>
-      <c r="G11" s="1">
-        <f>1/(POWER(B11,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <f>G11*H11</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K11" s="1">
-        <f>I11*J11</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <f>MIN(K11,1-D11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="3">
-        <v>22</v>
-      </c>
-      <c r="C12" s="1">
-        <v>9</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.04545454545454546</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0.006012024048096192</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.03944252140644926</v>
-      </c>
-      <c r="G12" s="1">
-        <f>1/(POWER(B12,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <f>SQRT((D12-POWER(10,-4))*B12*((1-D12+POWER(10,-4))*B12))</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <f>G12*H12</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K12" s="1">
-        <f>I12*J12</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="1">
-        <f>MIN(K12,1-D12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="3">
-        <v>18</v>
-      </c>
-      <c r="C13" s="1">
-        <v>10</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0.05555555555555555</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.006012024048096192</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.04954353150745936</v>
-      </c>
-      <c r="G13" s="1">
-        <f>1/(POWER(B13,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <f>SQRT((D13-POWER(10,-4))*B13*((1-D13+POWER(10,-4))*B13))</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <f>G13*H13</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K13" s="1">
-        <f>I13*J13</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="1">
-        <f>MIN(K13,1-D13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="3">
-        <v>10</v>
-      </c>
-      <c r="C14" s="1">
-        <v>11</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0.006012024048096192</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.09398797595190381</v>
-      </c>
-      <c r="G14" s="1">
-        <f>1/(POWER(B14,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <f>SQRT((D14-POWER(10,-4))*B14*((1-D14+POWER(10,-4))*B14))</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <f>G14*H14</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K14" s="1">
-        <f>I14*J14</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="1">
-        <f>MIN(K14,1-D14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="3">
-        <v>9</v>
-      </c>
-      <c r="C15" s="1">
-        <v>12</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.006012024048096192</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.1050990870630149</v>
-      </c>
-      <c r="G15" s="1">
-        <f>1/(POWER(B15,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <f>SQRT((D15-POWER(10,-4))*B15*((1-D15+POWER(10,-4))*B15))</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <f>G15*H15</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K15" s="1">
-        <f>I15*J15</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="1">
-        <f>MIN(K15,1-D15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="3">
-        <v>8</v>
-      </c>
-      <c r="C16" s="1">
-        <v>13</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0.125</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0.006012024048096192</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0.1189879759519038</v>
-      </c>
-      <c r="G16" s="1">
-        <f>1/(POWER(B16,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <f>SQRT((D16-POWER(10,-4))*B16*((1-D16+POWER(10,-4))*B16))</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <f>G16*H16</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K16" s="1">
-        <f>I16*J16</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="1">
-        <f>MIN(K16,1-D16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="3">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1">
-        <v>14</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0.006012024048096192</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0.1368451188090467</v>
-      </c>
-      <c r="G17" s="1">
-        <f>1/(POWER(B17,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
-        <f>SQRT((D17-POWER(10,-4))*B17*((1-D17+POWER(10,-4))*B17))</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
-        <f>G17*H17</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K17" s="1">
-        <f>I17*J17</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="1">
-        <f>MIN(K17,1-D17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="3">
-        <v>6</v>
-      </c>
-      <c r="C18" s="1">
-        <v>15</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0.006012024048096192</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0.1606546426185705</v>
-      </c>
-      <c r="G18" s="1">
-        <f>1/(POWER(B18,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="1">
-        <f>SQRT((D18-POWER(10,-4))*B18*((1-D18+POWER(10,-4))*B18))</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="1">
-        <f>G18*H18</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K18" s="1">
-        <f>I18*J18</f>
-        <v>0</v>
-      </c>
-      <c r="L18" s="1">
-        <f>MIN(K18,1-D18)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="3">
-        <v>4</v>
-      </c>
-      <c r="C19" s="1">
-        <v>16</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0.006012024048096192</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0.2439879759519038</v>
-      </c>
-      <c r="G19" s="1">
-        <f>1/(POWER(B19,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="1">
-        <f>SQRT((D19-POWER(10,-4))*B19*((1-D19+POWER(10,-4))*B19))</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="1">
-        <f>G19*H19</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K19" s="1">
-        <f>I19*J19</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="1">
-        <f>MIN(K19,1-D19)</f>
         <v>0</v>
       </c>
     </row>
@@ -5230,7 +4443,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5241,7 +4454,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -5264,111 +4477,25 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B4" s="3">
-        <v>187</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.0053475935828877</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.006012024048096192</v>
-      </c>
-      <c r="F4" s="1">
-        <v>-0.0006644304652084921</v>
-      </c>
-      <c r="G4" s="1">
-        <f>1/(POWER(B4,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <f>SQRT((D4-POWER(10,-4))*B4*((1-D4+POWER(10,-4))*B4))</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <f>G4*H4</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K4" s="1">
-        <f>I4*J4</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <f>MIN(K4,1-D4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B5" s="3">
-        <v>142</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.007042253521126761</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.006012024048096192</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.001030229473030568</v>
-      </c>
-      <c r="G5" s="1">
-        <f>1/(POWER(B5,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <f>SQRT((D5-POWER(10,-4))*B5*((1-D5+POWER(10,-4))*B5))</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <f>G5*H5</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K5" s="1">
-        <f>I5*J5</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <f>MIN(K5,1-D5)</f>
-        <v>0</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -5379,7 +4506,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5390,7 +4517,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -5413,30 +4540,30 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B4" s="3">
         <v>997</v>
@@ -5445,13 +4572,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.006018054162487462</v>
+        <v>0.001003009027081244</v>
       </c>
       <c r="E4" s="3">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F4" s="1">
-        <v>6.030114391269645E-06</v>
+        <v>1.005019065211752E-06</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -5479,7 +4606,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B5" s="3">
         <v>991</v>
@@ -5488,13 +4615,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.006054490413723511</v>
+        <v>0.001009081735620585</v>
       </c>
       <c r="E5" s="3">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F5" s="1">
-        <v>4.24663656273189E-05</v>
+        <v>7.077727604553295E-06</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -5522,7 +4649,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B6" s="3">
         <v>539</v>
@@ -5531,13 +4658,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.005565862708719851</v>
+        <v>0.001855287569573284</v>
       </c>
       <c r="E6" s="3">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F6" s="1">
-        <v>-0.0004461613393763409</v>
+        <v>0.0008532835615572519</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -5565,7 +4692,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B7" s="3">
         <v>344</v>
@@ -5574,13 +4701,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.008720930232558139</v>
+        <v>0.002906976744186046</v>
       </c>
       <c r="E7" s="3">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F7" s="1">
-        <v>0.002708906184461947</v>
+        <v>0.001904972736170014</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -5603,350 +4730,6 @@
       </c>
       <c r="L7" s="1">
         <f>MIN(K7,1-D7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" s="3">
-        <v>204</v>
-      </c>
-      <c r="C8" s="1">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.009803921568627451</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.006012024048096192</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.003791897520531259</v>
-      </c>
-      <c r="G8" s="1">
-        <f>1/(POWER(B8,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <f>G8*H8</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K8" s="1">
-        <f>I8*J8</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <f>MIN(K8,1-D8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" s="3">
-        <v>136</v>
-      </c>
-      <c r="C9" s="1">
-        <v>6</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.007352941176470588</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.006012024048096192</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.001340917128374396</v>
-      </c>
-      <c r="G9" s="1">
-        <f>1/(POWER(B9,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <f>G9*H9</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K9" s="1">
-        <f>I9*J9</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="1">
-        <f>MIN(K9,1-D9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10" s="3">
-        <v>92</v>
-      </c>
-      <c r="C10" s="1">
-        <v>7</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.0108695652173913</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.006012024048096192</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.004857541169295112</v>
-      </c>
-      <c r="G10" s="1">
-        <f>1/(POWER(B10,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <f>G10*H10</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K10" s="1">
-        <f>I10*J10</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="1">
-        <f>MIN(K10,1-D10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B11" s="3">
-        <v>54</v>
-      </c>
-      <c r="C11" s="1">
-        <v>8</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.01851851851851852</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.006012024048096192</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.01250649447042233</v>
-      </c>
-      <c r="G11" s="1">
-        <f>1/(POWER(B11,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <f>G11*H11</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K11" s="1">
-        <f>I11*J11</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <f>MIN(K11,1-D11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B12" s="3">
-        <v>35</v>
-      </c>
-      <c r="C12" s="1">
-        <v>9</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.02857142857142857</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0.006012024048096192</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.02255940452333238</v>
-      </c>
-      <c r="G12" s="1">
-        <f>1/(POWER(B12,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <f>SQRT((D12-POWER(10,-4))*B12*((1-D12+POWER(10,-4))*B12))</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <f>G12*H12</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K12" s="1">
-        <f>I12*J12</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="1">
-        <f>MIN(K12,1-D12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="3">
-        <v>17</v>
-      </c>
-      <c r="C13" s="1">
-        <v>10</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0.05882352941176471</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.006012024048096192</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.05281150536366851</v>
-      </c>
-      <c r="G13" s="1">
-        <f>1/(POWER(B13,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <f>SQRT((D13-POWER(10,-4))*B13*((1-D13+POWER(10,-4))*B13))</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <f>G13*H13</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K13" s="1">
-        <f>I13*J13</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="1">
-        <f>MIN(K13,1-D13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" s="3">
-        <v>9</v>
-      </c>
-      <c r="C14" s="1">
-        <v>11</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0.006012024048096192</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.1050990870630149</v>
-      </c>
-      <c r="G14" s="1">
-        <f>1/(POWER(B14,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <f>SQRT((D14-POWER(10,-4))*B14*((1-D14+POWER(10,-4))*B14))</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <f>G14*H14</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K14" s="1">
-        <f>I14*J14</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="1">
-        <f>MIN(K14,1-D14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B15" s="3">
-        <v>5</v>
-      </c>
-      <c r="C15" s="1">
-        <v>12</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.006012024048096192</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.1939879759519038</v>
-      </c>
-      <c r="G15" s="1">
-        <f>1/(POWER(B15,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <f>SQRT((D15-POWER(10,-4))*B15*((1-D15+POWER(10,-4))*B15))</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <f>G15*H15</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K15" s="1">
-        <f>I15*J15</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="1">
-        <f>MIN(K15,1-D15)</f>
         <v>0</v>
       </c>
     </row>
@@ -5969,7 +4752,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -5992,30 +4775,30 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B4" s="3">
         <v>622</v>
@@ -6024,13 +4807,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.009646302250803859</v>
+        <v>0.001607717041800643</v>
       </c>
       <c r="E4" s="3">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F4" s="1">
-        <v>0.003634278202707667</v>
+        <v>0.0006057130337846111</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -6058,7 +4841,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B5" s="3">
         <v>492</v>
@@ -6067,13 +4850,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.01219512195121951</v>
+        <v>0.002032520325203252</v>
       </c>
       <c r="E5" s="3">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F5" s="1">
-        <v>0.00618309790312332</v>
+        <v>0.00103051631718722</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -6101,7 +4884,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B6" s="3">
         <v>365</v>
@@ -6110,13 +4893,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.01095890410958904</v>
+        <v>0.00273972602739726</v>
       </c>
       <c r="E6" s="3">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F6" s="1">
-        <v>0.004946880061492849</v>
+        <v>0.001737722019381228</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -6144,7 +4927,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B7" s="3">
         <v>253</v>
@@ -6153,13 +4936,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.0158102766798419</v>
+        <v>0.003952569169960474</v>
       </c>
       <c r="E7" s="3">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F7" s="1">
-        <v>0.009798252631745705</v>
+        <v>0.002950565161944442</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -6187,7 +4970,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B8" s="3">
         <v>167</v>
@@ -6199,10 +4982,10 @@
         <v>0.005988023952095809</v>
       </c>
       <c r="E8" s="3">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F8" s="1">
-        <v>-2.400009600038357E-05</v>
+        <v>0.004986019944079777</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -6230,7 +5013,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B9" s="3">
         <v>126</v>
@@ -6242,10 +5025,10 @@
         <v>0.007936507936507936</v>
       </c>
       <c r="E9" s="3">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F9" s="1">
-        <v>0.001924483888411744</v>
+        <v>0.006934503928491904</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -6273,7 +5056,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B10" s="3">
         <v>85</v>
@@ -6285,10 +5068,10 @@
         <v>0.01176470588235294</v>
       </c>
       <c r="E10" s="3">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F10" s="1">
-        <v>0.005752681834256749</v>
+        <v>0.01076270187433691</v>
       </c>
       <c r="G10" s="1">
         <f>1/(POWER(B10,1.5))</f>
@@ -6316,7 +5099,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B11" s="3">
         <v>65</v>
@@ -6328,10 +5111,10 @@
         <v>0.01538461538461539</v>
       </c>
       <c r="E11" s="3">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F11" s="1">
-        <v>0.009372591336519194</v>
+        <v>0.01438261137659935</v>
       </c>
       <c r="G11" s="1">
         <f>1/(POWER(B11,1.5))</f>
@@ -6365,7 +5148,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6376,7 +5159,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -6399,30 +5182,30 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="B4" s="3">
         <v>998</v>
@@ -6431,10 +5214,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="E4" s="3">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -6460,49 +5243,6 @@
       </c>
       <c r="L4" s="1">
         <f>MIN(K4,1-D4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B5" s="3">
-        <v>683</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.007320644216691069</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.006012024048096192</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.001308620168594877</v>
-      </c>
-      <c r="G5" s="1">
-        <f>1/(POWER(B5,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <f>SQRT((D5-POWER(10,-4))*B5*((1-D5+POWER(10,-4))*B5))</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <f>G5*H5</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K5" s="1">
-        <f>I5*J5</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <f>MIN(K5,1-D5)</f>
         <v>0</v>
       </c>
     </row>
@@ -6514,7 +5254,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6525,7 +5265,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -6548,30 +5288,30 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="B4" s="3">
         <v>398</v>
@@ -6580,13 +5320,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.007537688442211055</v>
+        <v>0.002512562814070352</v>
       </c>
       <c r="E4" s="3">
-        <v>0.006012024048096192</v>
+        <v>0.001002004008016032</v>
       </c>
       <c r="F4" s="1">
-        <v>0.001525664394114863</v>
+        <v>0.00151055880605432</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -6609,135 +5349,6 @@
       </c>
       <c r="L4" s="1">
         <f>MIN(K4,1-D4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B5" s="3">
-        <v>157</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.006369426751592357</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.006012024048096192</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.0003574027034961647</v>
-      </c>
-      <c r="G5" s="1">
-        <f>1/(POWER(B5,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <f>SQRT((D5-POWER(10,-4))*B5*((1-D5+POWER(10,-4))*B5))</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <f>G5*H5</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K5" s="1">
-        <f>I5*J5</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <f>MIN(K5,1-D5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B6" s="3">
-        <v>75</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.01333333333333333</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.006012024048096192</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.007321309285237142</v>
-      </c>
-      <c r="G6" s="1">
-        <f>1/(POWER(B6,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <f>G6*H6</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K6" s="1">
-        <f>I6*J6</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <f>MIN(K6,1-D6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B7" s="3">
-        <v>43</v>
-      </c>
-      <c r="C7" s="1">
-        <v>4</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.02325581395348837</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.006012024048096192</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.01724378990539218</v>
-      </c>
-      <c r="G7" s="1">
-        <f>1/(POWER(B7,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <f>G7*H7</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K7" s="1">
-        <f>I7*J7</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <f>MIN(K7,1-D7)</f>
         <v>0</v>
       </c>
     </row>
